--- a/task_users.xlsx
+++ b/task_users.xlsx
@@ -4,58 +4,46 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Users" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="user task" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>s_no</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>avatar</t>
-  </si>
-  <si>
-    <t>otp</t>
-  </si>
-  <si>
-    <t>verify_otp</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>admin@gmail.com</t>
-  </si>
-  <si>
-    <t>$2b$10$apeEB9tVluf/DyoGNqg66e4K3P0.w.2a/uyo5kBN5Kd9hxOQ8Opsm</t>
-  </si>
-  <si>
-    <t>image/png</t>
-  </si>
-  <si>
-    <t>kenil</t>
-  </si>
-  <si>
-    <t>kenilmangroliya18@gmail.com</t>
-  </si>
-  <si>
-    <t>$2b$10$WeKNghEFVP0KC0wIstceAOgXbQ49RBunZGGPH3.miMpbaVahH1cXa</t>
-  </si>
-  <si>
-    <t>/public/images/2.jpg</t>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>email_otp</t>
+  </si>
+  <si>
+    <t>show data in exls</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>xslx</t>
+  </si>
+  <si>
+    <t>task data in exls</t>
+  </si>
+  <si>
+    <t>success</t>
   </si>
 </sst>
 </file>
@@ -94,9 +82,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:E3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="7" width="10" customWidth="1"/>
+    <col min="1" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,54 +447,39 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44964.21292824074</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44965.185219907406</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/task_users.xlsx
+++ b/task_users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="user task" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="My Users" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>

--- a/task_users.xlsx
+++ b/task_users.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="My Users" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="user task" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -28,22 +28,22 @@
     <t>status</t>
   </si>
   <si>
-    <t>email_otp</t>
-  </si>
-  <si>
-    <t>show data in exls</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>xslx</t>
-  </si>
-  <si>
-    <t>task data in exls</t>
+    <t>token</t>
+  </si>
+  <si>
+    <t>jwt</t>
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>all done</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>44964.21292824074</v>
+        <v>44987.16208333333</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -476,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>44965.185219907406</v>
+        <v>44987.16769675926</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
